--- a/examples/puerto_rico_stoch/data/scenarios.xlsx
+++ b/examples/puerto_rico_stoch/data/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="79">
   <si>
     <t>Scenario</t>
   </si>
@@ -235,6 +235,30 @@
   </si>
   <si>
     <t>ZD</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>ZE</t>
+  </si>
+  <si>
+    <t>EC_COAL</t>
+  </si>
+  <si>
+    <t>EC_DSL_SIMP</t>
+  </si>
+  <si>
+    <t>EC_DSL_CC</t>
+  </si>
+  <si>
+    <t>EC_OIL_TYPE</t>
   </si>
 </sst>
 </file>
@@ -554,19 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="U2" sqref="U2:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,43 +607,55 @@
         <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -671,8 +707,20 @@
       <c r="Q2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -724,8 +772,20 @@
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -777,8 +837,20 @@
       <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -830,8 +902,20 @@
       <c r="Q5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -883,8 +967,20 @@
       <c r="Q6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -936,8 +1032,20 @@
       <c r="Q7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -989,8 +1097,20 @@
       <c r="Q8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>1000</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1040,6 +1160,18 @@
         <v>30</v>
       </c>
       <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>30</v>
+      </c>
+      <c r="U9">
         <v>30</v>
       </c>
     </row>
@@ -1051,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1194,7 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,43 +1211,55 @@
         <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,9 +1290,6 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
@@ -1161,14 +1302,20 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
       <c r="Q2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1199,9 +1346,6 @@
       <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
         <v>27</v>
       </c>
@@ -1214,14 +1358,20 @@
       <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1252,9 +1402,6 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
@@ -1267,14 +1414,20 @@
       <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1305,9 +1458,6 @@
       <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="L5" t="s">
         <v>27</v>
       </c>
@@ -1320,14 +1470,20 @@
       <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1358,9 +1514,6 @@
       <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
       <c r="L6" t="s">
         <v>27</v>
       </c>
@@ -1373,14 +1526,20 @@
       <c r="O6" t="s">
         <v>27</v>
       </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1411,9 +1570,6 @@
       <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
@@ -1426,14 +1582,20 @@
       <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1464,9 +1626,6 @@
       <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
@@ -1479,14 +1638,20 @@
       <c r="O8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1517,9 +1682,6 @@
       <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
       <c r="L9" t="s">
         <v>27</v>
       </c>
@@ -1532,14 +1694,20 @@
       <c r="O9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1570,9 +1738,6 @@
       <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
       <c r="L10" t="s">
         <v>27</v>
       </c>
@@ -1585,14 +1750,20 @@
       <c r="O10" t="s">
         <v>27</v>
       </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
       <c r="Q10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1623,9 +1794,6 @@
       <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
       <c r="L11" t="s">
         <v>27</v>
       </c>
@@ -1638,14 +1806,20 @@
       <c r="O11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
       <c r="Q11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1676,9 +1850,6 @@
       <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
@@ -1691,14 +1862,20 @@
       <c r="O12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1708,43 +1885,43 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1754,26 +1931,26 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1783,60 +1960,60 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1846,43 +2023,43 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
       <c r="I19" t="s">
         <v>27</v>
       </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1892,26 +2069,26 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
       <c r="I21" t="s">
         <v>27</v>
       </c>
-      <c r="L21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1921,57 +2098,77 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
       <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="L22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>27</v>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+      <selection activeCell="U3" sqref="U3:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2190,7 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2010,43 +2207,55 @@
         <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2056,13 +2265,10 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
@@ -2071,11 +2277,14 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2127,8 +2336,20 @@
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -2180,8 +2401,20 @@
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2233,8 +2466,20 @@
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2286,8 +2531,20 @@
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2339,8 +2596,20 @@
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2392,8 +2661,20 @@
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2445,8 +2726,20 @@
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2496,6 +2789,18 @@
         <v>27</v>
       </c>
       <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2506,19 +2811,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2535,43 +2841,55 @@
         <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2623,8 +2941,20 @@
       <c r="Q2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2676,8 +3006,20 @@
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +3071,20 @@
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2782,8 +3136,20 @@
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2835,14 +3201,23 @@
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -2852,26 +3227,32 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
@@ -2881,20 +3262,29 @@
       <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
         <v>27</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2946,8 +3336,20 @@
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2999,8 +3401,20 @@
       <c r="Q10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3052,8 +3466,20 @@
       <c r="Q11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3105,8 +3531,20 @@
       <c r="Q12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3156,6 +3594,18 @@
         <v>27</v>
       </c>
       <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/examples/puerto_rico_stoch/data/scenarios.xlsx
+++ b/examples/puerto_rico_stoch/data/scenarios.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="78">
   <si>
     <t>Scenario</t>
   </si>
@@ -249,16 +249,13 @@
     <t>ZE</t>
   </si>
   <si>
+    <t>EC_DSL_CC</t>
+  </si>
+  <si>
+    <t>EC_OIL_CC</t>
+  </si>
+  <si>
     <t>EC_COAL</t>
-  </si>
-  <si>
-    <t>EC_DSL_SIMP</t>
-  </si>
-  <si>
-    <t>EC_DSL_CC</t>
-  </si>
-  <si>
-    <t>EC_OIL_TYPE</t>
   </si>
 </sst>
 </file>
@@ -1183,15 +1180,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1290,6 +1288,9 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
@@ -1302,6 +1303,9 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
       <c r="Q2" t="s">
         <v>27</v>
       </c>
@@ -1312,6 +1316,9 @@
         <v>27</v>
       </c>
       <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1346,6 +1353,9 @@
       <c r="J3" t="s">
         <v>27</v>
       </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
       <c r="L3" t="s">
         <v>27</v>
       </c>
@@ -1358,6 +1368,9 @@
       <c r="O3" t="s">
         <v>27</v>
       </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
@@ -1368,6 +1381,9 @@
         <v>27</v>
       </c>
       <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1402,6 +1418,9 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
@@ -1414,6 +1433,9 @@
       <c r="O4" t="s">
         <v>27</v>
       </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
       <c r="Q4" t="s">
         <v>27</v>
       </c>
@@ -1424,6 +1446,9 @@
         <v>27</v>
       </c>
       <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1458,6 +1483,9 @@
       <c r="J5" t="s">
         <v>27</v>
       </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
       <c r="L5" t="s">
         <v>27</v>
       </c>
@@ -1470,6 +1498,9 @@
       <c r="O5" t="s">
         <v>27</v>
       </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q5" t="s">
         <v>27</v>
       </c>
@@ -1480,6 +1511,9 @@
         <v>27</v>
       </c>
       <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1514,6 +1548,9 @@
       <c r="J6" t="s">
         <v>27</v>
       </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
       <c r="L6" t="s">
         <v>27</v>
       </c>
@@ -1526,6 +1563,9 @@
       <c r="O6" t="s">
         <v>27</v>
       </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
       <c r="Q6" t="s">
         <v>27</v>
       </c>
@@ -1536,6 +1576,9 @@
         <v>27</v>
       </c>
       <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1570,6 +1613,9 @@
       <c r="J7" t="s">
         <v>27</v>
       </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
@@ -1582,6 +1628,9 @@
       <c r="O7" t="s">
         <v>27</v>
       </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
@@ -1592,6 +1641,9 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1626,6 +1678,9 @@
       <c r="J8" t="s">
         <v>27</v>
       </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
@@ -1638,6 +1693,9 @@
       <c r="O8" t="s">
         <v>27</v>
       </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
@@ -1648,6 +1706,9 @@
         <v>27</v>
       </c>
       <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1682,6 +1743,9 @@
       <c r="J9" t="s">
         <v>27</v>
       </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
       <c r="L9" t="s">
         <v>27</v>
       </c>
@@ -1694,6 +1758,9 @@
       <c r="O9" t="s">
         <v>27</v>
       </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
@@ -1704,6 +1771,9 @@
         <v>27</v>
       </c>
       <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1738,6 +1808,9 @@
       <c r="J10" t="s">
         <v>27</v>
       </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
       <c r="L10" t="s">
         <v>27</v>
       </c>
@@ -1750,6 +1823,9 @@
       <c r="O10" t="s">
         <v>27</v>
       </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
       <c r="Q10" t="s">
         <v>27</v>
       </c>
@@ -1760,6 +1836,9 @@
         <v>27</v>
       </c>
       <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1794,6 +1873,9 @@
       <c r="J11" t="s">
         <v>27</v>
       </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
       <c r="L11" t="s">
         <v>27</v>
       </c>
@@ -1806,6 +1888,9 @@
       <c r="O11" t="s">
         <v>27</v>
       </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
       <c r="Q11" t="s">
         <v>27</v>
       </c>
@@ -1816,6 +1901,9 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1850,6 +1938,9 @@
       <c r="J12" t="s">
         <v>27</v>
       </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
@@ -1862,6 +1953,9 @@
       <c r="O12" t="s">
         <v>27</v>
       </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
@@ -1872,6 +1966,9 @@
         <v>27</v>
       </c>
       <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1923,252 +2020,283 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>78</v>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2949,7 @@
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
